--- a/Data/fatality.xlsx
+++ b/Data/fatality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Hypothesis testing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D20A82-22F9-4591-A1EC-D0DDA749DEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3CC0CC-4B0E-4329-AEE7-AE2220D2DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B214F8F3-42AB-48DE-8309-6C278E703066}"/>
+    <workbookView xWindow="4248" yWindow="2460" windowWidth="17280" windowHeight="8964" xr2:uid="{B214F8F3-42AB-48DE-8309-6C278E703066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
   <si>
     <t>County Name</t>
   </si>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>ANDREWS</t>
   </si>
 </sst>
 </file>
@@ -1784,11 +1787,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2104,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E95A3F-AF04-4E1C-864F-B84456D2A1A1}">
-  <dimension ref="A1:UQ2"/>
+  <dimension ref="A1:UQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="TU1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:UQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5494,6 +5498,1697 @@
         <v>160</v>
       </c>
     </row>
+    <row r="3" spans="1:563" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DU3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DW3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DX3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DY3" s="3">
+        <v>3</v>
+      </c>
+      <c r="DZ3" s="3">
+        <v>3</v>
+      </c>
+      <c r="EA3" s="3">
+        <v>3</v>
+      </c>
+      <c r="EB3" s="3">
+        <v>3</v>
+      </c>
+      <c r="EC3" s="3">
+        <v>3</v>
+      </c>
+      <c r="ED3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EE3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EF3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EG3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EH3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EI3" s="3">
+        <v>4</v>
+      </c>
+      <c r="EJ3" s="3">
+        <v>5</v>
+      </c>
+      <c r="EK3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EL3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EM3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EN3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EO3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>6</v>
+      </c>
+      <c r="EQ3" s="3">
+        <v>6</v>
+      </c>
+      <c r="ER3" s="3">
+        <v>6</v>
+      </c>
+      <c r="ES3" s="3">
+        <v>6</v>
+      </c>
+      <c r="ET3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EU3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EV3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EW3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EX3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EY3" s="3">
+        <v>7</v>
+      </c>
+      <c r="EZ3" s="3">
+        <v>7</v>
+      </c>
+      <c r="FA3" s="3">
+        <v>7</v>
+      </c>
+      <c r="FB3" s="3">
+        <v>7</v>
+      </c>
+      <c r="FC3" s="3">
+        <v>7</v>
+      </c>
+      <c r="FD3" s="3">
+        <v>7</v>
+      </c>
+      <c r="FE3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FF3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FG3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FH3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FI3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FJ3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FK3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FL3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FM3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FN3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FO3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FP3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FQ3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FR3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FS3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FT3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FU3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FV3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FW3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FX3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FY3" s="3">
+        <v>8</v>
+      </c>
+      <c r="FZ3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GA3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GB3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GC3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GD3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GE3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GF3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GG3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GH3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GI3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GK3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GL3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GM3" s="3">
+        <v>8</v>
+      </c>
+      <c r="GN3" s="3">
+        <v>9</v>
+      </c>
+      <c r="GO3" s="3">
+        <v>9</v>
+      </c>
+      <c r="GP3" s="3">
+        <v>9</v>
+      </c>
+      <c r="GQ3" s="3">
+        <v>9</v>
+      </c>
+      <c r="GR3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GS3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GT3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GU3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GV3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GW3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GX3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GY3" s="3">
+        <v>10</v>
+      </c>
+      <c r="GZ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HA3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HB3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HC3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HD3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HE3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HF3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HG3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HH3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HI3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HJ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HK3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HL3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HM3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HN3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HO3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HP3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HQ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HR3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HS3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HT3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HU3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HV3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HW3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HX3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HY3" s="3">
+        <v>10</v>
+      </c>
+      <c r="HZ3" s="3">
+        <v>10</v>
+      </c>
+      <c r="IA3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IB3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IC3" s="3">
+        <v>11</v>
+      </c>
+      <c r="ID3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IE3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IF3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IG3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IH3" s="3">
+        <v>11</v>
+      </c>
+      <c r="II3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IJ3" s="3">
+        <v>11</v>
+      </c>
+      <c r="IK3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IL3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IM3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IN3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IO3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IP3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IQ3" s="3">
+        <v>12</v>
+      </c>
+      <c r="IR3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IS3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IT3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IU3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IV3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IW3" s="3">
+        <v>13</v>
+      </c>
+      <c r="IX3" s="3">
+        <v>14</v>
+      </c>
+      <c r="IY3" s="3">
+        <v>14</v>
+      </c>
+      <c r="IZ3" s="3">
+        <v>14</v>
+      </c>
+      <c r="JA3" s="3">
+        <v>14</v>
+      </c>
+      <c r="JB3" s="3">
+        <v>14</v>
+      </c>
+      <c r="JC3" s="3">
+        <v>14</v>
+      </c>
+      <c r="JD3" s="3">
+        <v>14</v>
+      </c>
+      <c r="JE3" s="3">
+        <v>15</v>
+      </c>
+      <c r="JF3" s="3">
+        <v>16</v>
+      </c>
+      <c r="JG3" s="3">
+        <v>16</v>
+      </c>
+      <c r="JH3" s="3">
+        <v>17</v>
+      </c>
+      <c r="JI3" s="3">
+        <v>18</v>
+      </c>
+      <c r="JJ3" s="3">
+        <v>18</v>
+      </c>
+      <c r="JK3" s="3">
+        <v>18</v>
+      </c>
+      <c r="JL3" s="3">
+        <v>19</v>
+      </c>
+      <c r="JM3" s="3">
+        <v>19</v>
+      </c>
+      <c r="JN3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JO3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JP3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JQ3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JR3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JS3" s="3">
+        <v>22</v>
+      </c>
+      <c r="JT3" s="3">
+        <v>22</v>
+      </c>
+      <c r="JU3" s="3">
+        <v>22</v>
+      </c>
+      <c r="JV3" s="3">
+        <v>23</v>
+      </c>
+      <c r="JW3" s="3">
+        <v>23</v>
+      </c>
+      <c r="JX3" s="3">
+        <v>24</v>
+      </c>
+      <c r="JY3" s="3">
+        <v>24</v>
+      </c>
+      <c r="JZ3" s="3">
+        <v>24</v>
+      </c>
+      <c r="KA3" s="3">
+        <v>24</v>
+      </c>
+      <c r="KB3" s="3">
+        <v>24</v>
+      </c>
+      <c r="KC3" s="3">
+        <v>24</v>
+      </c>
+      <c r="KD3" s="3">
+        <v>24</v>
+      </c>
+      <c r="KE3" s="3">
+        <v>26</v>
+      </c>
+      <c r="KF3" s="3">
+        <v>26</v>
+      </c>
+      <c r="KG3" s="3">
+        <v>26</v>
+      </c>
+      <c r="KH3" s="3">
+        <v>28</v>
+      </c>
+      <c r="KI3" s="3">
+        <v>29</v>
+      </c>
+      <c r="KJ3" s="3">
+        <v>30</v>
+      </c>
+      <c r="KK3" s="3">
+        <v>31</v>
+      </c>
+      <c r="KL3" s="3">
+        <v>31</v>
+      </c>
+      <c r="KM3" s="3">
+        <v>31</v>
+      </c>
+      <c r="KN3" s="3">
+        <v>32</v>
+      </c>
+      <c r="KO3" s="3">
+        <v>33</v>
+      </c>
+      <c r="KP3" s="3">
+        <v>33</v>
+      </c>
+      <c r="KQ3" s="3">
+        <v>33</v>
+      </c>
+      <c r="KR3" s="3">
+        <v>33</v>
+      </c>
+      <c r="KS3" s="3">
+        <v>34</v>
+      </c>
+      <c r="KT3" s="3">
+        <v>35</v>
+      </c>
+      <c r="KU3" s="3">
+        <v>36</v>
+      </c>
+      <c r="KV3" s="3">
+        <v>37</v>
+      </c>
+      <c r="KW3" s="3">
+        <v>37</v>
+      </c>
+      <c r="KX3" s="3">
+        <v>37</v>
+      </c>
+      <c r="KY3" s="3">
+        <v>38</v>
+      </c>
+      <c r="KZ3" s="3">
+        <v>38</v>
+      </c>
+      <c r="LA3" s="3">
+        <v>39</v>
+      </c>
+      <c r="LB3" s="3">
+        <v>39</v>
+      </c>
+      <c r="LC3" s="3">
+        <v>39</v>
+      </c>
+      <c r="LD3" s="3">
+        <v>39</v>
+      </c>
+      <c r="LE3" s="3">
+        <v>40</v>
+      </c>
+      <c r="LF3" s="3">
+        <v>41</v>
+      </c>
+      <c r="LG3" s="3">
+        <v>41</v>
+      </c>
+      <c r="LH3" s="3">
+        <v>41</v>
+      </c>
+      <c r="LI3" s="3">
+        <v>42</v>
+      </c>
+      <c r="LJ3" s="3">
+        <v>43</v>
+      </c>
+      <c r="LK3" s="3">
+        <v>43</v>
+      </c>
+      <c r="LL3" s="3">
+        <v>43</v>
+      </c>
+      <c r="LM3" s="3">
+        <v>43</v>
+      </c>
+      <c r="LN3" s="3">
+        <v>44</v>
+      </c>
+      <c r="LO3" s="3">
+        <v>44</v>
+      </c>
+      <c r="LP3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LQ3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LR3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LS3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LT3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LU3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LV3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LW3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LX3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LY3" s="3">
+        <v>45</v>
+      </c>
+      <c r="LZ3" s="3">
+        <v>45</v>
+      </c>
+      <c r="MA3" s="3">
+        <v>45</v>
+      </c>
+      <c r="MB3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MC3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MD3" s="3">
+        <v>46</v>
+      </c>
+      <c r="ME3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MF3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MG3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MH3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MI3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MJ3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MK3" s="3">
+        <v>46</v>
+      </c>
+      <c r="ML3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MM3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MN3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MO3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MP3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MQ3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MR3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MS3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MT3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MU3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MV3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MW3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MX3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MY3" s="3">
+        <v>46</v>
+      </c>
+      <c r="MZ3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NA3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NB3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NC3" s="3">
+        <v>46</v>
+      </c>
+      <c r="ND3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NE3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NF3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NG3" s="3">
+        <v>46</v>
+      </c>
+      <c r="NH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NN3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NT3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NY3" s="3">
+        <v>47</v>
+      </c>
+      <c r="NZ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OA3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OB3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OC3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OE3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OG3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="ON3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OT3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OY3" s="3">
+        <v>47</v>
+      </c>
+      <c r="OZ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PA3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PB3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PC3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PE3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PG3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PN3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PT3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PY3" s="3">
+        <v>47</v>
+      </c>
+      <c r="PZ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QA3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QB3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QC3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QE3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QG3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QN3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QT3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QY3" s="3">
+        <v>47</v>
+      </c>
+      <c r="QZ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RA3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RB3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RC3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RE3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RG3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RN3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RT3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RY3" s="3">
+        <v>47</v>
+      </c>
+      <c r="RZ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SA3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SB3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SC3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SE3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SG3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SH3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SI3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SJ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SK3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SL3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SM3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SN3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SO3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SP3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SQ3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SR3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SS3" s="3">
+        <v>47</v>
+      </c>
+      <c r="ST3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SU3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SW3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="SY3" s="3">
+        <v>48</v>
+      </c>
+      <c r="SZ3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TA3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TB3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TC3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TD3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TE3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TF3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TG3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TH3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TI3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TJ3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TK3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TL3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TM3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TN3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TO3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TP3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TQ3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TR3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TS3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TT3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TU3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TV3" s="3">
+        <v>48</v>
+      </c>
+      <c r="TW3" s="3">
+        <v>49</v>
+      </c>
+      <c r="TX3" s="3">
+        <v>49</v>
+      </c>
+      <c r="TY3" s="3">
+        <v>49</v>
+      </c>
+      <c r="TZ3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UA3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UB3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UC3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UD3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UE3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UF3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UG3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UH3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UI3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UJ3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UK3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UL3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UM3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UN3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UO3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UP3" s="3">
+        <v>49</v>
+      </c>
+      <c r="UQ3" s="3">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
